--- a/biology/Botanique/Geraniales/Geraniales.xlsx
+++ b/biology/Botanique/Geraniales/Geraniales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,15 +490,17 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Geraniales sont un ordre de plantes dicotylédones. En classification classique de Cronquist (1981)[1], il comprend cinq familles :
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Geraniales sont un ordre de plantes dicotylédones. En classification classique de Cronquist (1981), il comprend cinq familles :
 Balsaminacées (famille de l'impatiente).
 Géraniacées (famille du geranium).
 Limnanthacées
 Oxalidacées (famille de l'oxalis)
 Tropaéolacées (famille de la capucine)
-La classification phylogénétique APG (1998)[2] a considérablement modifié la composition de cet ordre. En classification phylogénétique APG II (2003)[3] il comprend les familles suivantes :
+La classification phylogénétique APG (1998) a considérablement modifié la composition de cet ordre. En classification phylogénétique APG II (2003) il comprend les familles suivantes :
 ordre Geraniales
 famille Geraniaceae
 [+ famille Hypseocharitaceae ]
@@ -504,7 +516,7 @@
 famille Ledocarpaceae
 famille Melianthaceae
 famille Vivianiaceae
-La classification phylogénétique APG III (2009)[4] place cet ordre sous Malvidées (au lieu de directement sous Rosidées pour APG II) avec ce contenu :
+La classification phylogénétique APG III (2009) place cet ordre sous Malvidées (au lieu de directement sous Rosidées pour APG II) avec ce contenu :
 ordre Geraniales Juss. ex Bercht. &amp; J.Presl (1820)
 famille Geraniaceae Juss. (1789) (incluant Hypseocharitaceae Wedd.)
 famille Melianthaceae Horan. (1834) (incluant Francoaceae A.Juss.)
